--- a/ig/ch-core/StructureDefinition-ch-core-encounter.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -485,7 +485,7 @@
     <t>Identifier(s) by which this encounter is known.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>

--- a/ig/ch-core/StructureDefinition-ch-core-encounter.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T19:57:45+00:00</t>
+    <t>2025-05-22T06:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -965,7 +965,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|Group)
 </t>
   </si>
   <si>
@@ -1104,7 +1104,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -2066,17 +2066,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="125.90625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="165.33984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2085,26 +2085,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.59765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.23828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="191.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="163.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-core/StructureDefinition-ch-core-encounter.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -625,7 +625,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -722,7 +722,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -907,7 +907,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -931,7 +931,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -993,7 +993,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1019,7 +1019,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1129,7 +1129,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -1210,7 +1210,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1228,7 +1228,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1263,7 +1263,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1294,7 +1294,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1316,7 +1316,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1542,7 +1542,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1563,7 +1563,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1688,7 +1688,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
